--- a/CapstoneOneBestBuyAutomation/CapstoneOne.xlsx
+++ b/CapstoneOneBestBuyAutomation/CapstoneOne.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
